--- a/medicine/Psychotrope/Caffè_Moak/Caffè_Moak.xlsx
+++ b/medicine/Psychotrope/Caffè_Moak/Caffè_Moak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Moak</t>
+          <t>Caffè_Moak</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Caffè Moak est une Société par actions italien qui produit du café torréfié, fondée en 1967, située à Modica, dans le  Libre consortium municipal de Raguse, en Sicile[2].
+Caffè Moak est une Société par actions italien qui produit du café torréfié, fondée en 1967, située à Modica, dans le  Libre consortium municipal de Raguse, en Sicile.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Moak</t>
+          <t>Caffè_Moak</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondée en 1967 par Giovanni Spadola, comme une petite entreprise de torréfaction et de distribution de café, elle a ensuite élargi la zone de distribution pour devenir une société par actions en 2005[3],et avoir une dimension nationale et puis internationale[2].En ce qui concerne le nom de la société, Spadola a pris le toponyme de le  domination arabe en Sicile, Mohac (Modica) et l'a changé en Moak[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée en 1967 par Giovanni Spadola, comme une petite entreprise de torréfaction et de distribution de café, elle a ensuite élargi la zone de distribution pour devenir une société par actions en 2005,et avoir une dimension nationale et puis internationale.En ce qui concerne le nom de la société, Spadola a pris le toponyme de le  domination arabe en Sicile, Mohac (Modica) et l'a changé en Moak.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Moak</t>
+          <t>Caffè_Moak</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Initiatives</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2002, la société organise chaque année un concours national de récit, "Café Literario", auquel se sont joints les concours de photographie et communication visuelle[5],[6].L'initiative rend hommage chaque année à un représentant éminent de la littérature dans le monde. En 2020, par exemple, l'icône graphique de l'événement était Tonino Guerra[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2002, la société organise chaque année un concours national de récit, "Café Literario", auquel se sont joints les concours de photographie et communication visuelle,.L'initiative rend hommage chaque année à un représentant éminent de la littérature dans le monde. En 2020, par exemple, l'icône graphique de l'événement était Tonino Guerra.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Moak</t>
+          <t>Caffè_Moak</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>“Impresa vincente” (Roadshow de Intesa Sanpaolo 2019)[7]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>“Impresa vincente” (Roadshow de Intesa Sanpaolo 2019)</t>
         </is>
       </c>
     </row>
